--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H2">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I2">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J2">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>12.963894</v>
+        <v>11.550723</v>
       </c>
       <c r="N2">
-        <v>38.891682</v>
+        <v>34.652169</v>
       </c>
       <c r="O2">
-        <v>0.9730587716591288</v>
+        <v>0.9771722872222799</v>
       </c>
       <c r="P2">
-        <v>0.9730587716591287</v>
+        <v>0.9771722872222797</v>
       </c>
       <c r="Q2">
-        <v>50.70512979735399</v>
+        <v>26.695815384104</v>
       </c>
       <c r="R2">
-        <v>456.3461681761859</v>
+        <v>240.262338456936</v>
       </c>
       <c r="S2">
-        <v>0.4004471039352321</v>
+        <v>0.3284987838041654</v>
       </c>
       <c r="T2">
-        <v>0.400447103935232</v>
+        <v>0.3284987838041653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H3">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I3">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J3">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.449184</v>
       </c>
       <c r="O3">
-        <v>0.01123845534088585</v>
+        <v>0.012666744083571</v>
       </c>
       <c r="P3">
-        <v>0.01123845534088585</v>
+        <v>0.012666744083571</v>
       </c>
       <c r="Q3">
-        <v>0.5856247879146667</v>
+        <v>0.3460485586773333</v>
       </c>
       <c r="R3">
-        <v>5.270623091232</v>
+        <v>3.114437028096</v>
       </c>
       <c r="S3">
-        <v>0.00462501035398889</v>
+        <v>0.004258215343007539</v>
       </c>
       <c r="T3">
-        <v>0.004625010353988888</v>
+        <v>0.004258215343007538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.911257666666666</v>
+        <v>2.311181333333333</v>
       </c>
       <c r="H4">
-        <v>11.733773</v>
+        <v>6.933544</v>
       </c>
       <c r="I4">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="J4">
-        <v>0.4115343446855154</v>
+        <v>0.336172840858964</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2092053333333333</v>
+        <v>0.1201083333333333</v>
       </c>
       <c r="N4">
-        <v>0.627616</v>
+        <v>0.360325</v>
       </c>
       <c r="O4">
-        <v>0.01570277299998534</v>
+        <v>0.01016096869414922</v>
       </c>
       <c r="P4">
-        <v>0.01570277299998534</v>
+        <v>0.01016096869414921</v>
       </c>
       <c r="Q4">
-        <v>0.8182559639075555</v>
+        <v>0.2775921379777778</v>
       </c>
       <c r="R4">
-        <v>7.364303675167999</v>
+        <v>2.4983292418</v>
       </c>
       <c r="S4">
-        <v>0.006462230396294372</v>
+        <v>0.00341584171179114</v>
       </c>
       <c r="T4">
-        <v>0.00646223039629437</v>
+        <v>0.00341584171179114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.300544</v>
       </c>
       <c r="I5">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J5">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>12.963894</v>
+        <v>11.550723</v>
       </c>
       <c r="N5">
-        <v>38.891682</v>
+        <v>34.652169</v>
       </c>
       <c r="O5">
-        <v>0.9730587716591288</v>
+        <v>0.9771722872222799</v>
       </c>
       <c r="P5">
-        <v>0.9730587716591287</v>
+        <v>0.9771722872222797</v>
       </c>
       <c r="Q5">
-        <v>53.15431618611199</v>
+        <v>47.360058831104</v>
       </c>
       <c r="R5">
-        <v>478.388845675008</v>
+        <v>426.240529479936</v>
       </c>
       <c r="S5">
-        <v>0.4197897148366426</v>
+        <v>0.5827775440856254</v>
       </c>
       <c r="T5">
-        <v>0.4197897148366426</v>
+        <v>0.5827775440856253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.300544</v>
       </c>
       <c r="I6">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J6">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.449184</v>
       </c>
       <c r="O6">
-        <v>0.01123845534088585</v>
+        <v>0.012666744083571</v>
       </c>
       <c r="P6">
-        <v>0.01123845534088585</v>
+        <v>0.012666744083571</v>
       </c>
       <c r="Q6">
         <v>0.6139119506773334</v>
@@ -818,10 +818,10 @@
         <v>5.525207556096</v>
       </c>
       <c r="S6">
-        <v>0.004848410085971147</v>
+        <v>0.007554342366348196</v>
       </c>
       <c r="T6">
-        <v>0.004848410085971146</v>
+        <v>0.007554342366348193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.300544</v>
       </c>
       <c r="I7">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="J7">
-        <v>0.4314124974392592</v>
+        <v>0.5963918049111226</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2092053333333333</v>
+        <v>0.1201083333333333</v>
       </c>
       <c r="N7">
-        <v>0.627616</v>
+        <v>0.360325</v>
       </c>
       <c r="O7">
-        <v>0.01570277299998534</v>
+        <v>0.01016096869414922</v>
       </c>
       <c r="P7">
-        <v>0.01570277299998534</v>
+        <v>0.01016096869414921</v>
       </c>
       <c r="Q7">
-        <v>0.8577798025671111</v>
+        <v>0.4924659463111111</v>
       </c>
       <c r="R7">
-        <v>7.720018223104</v>
+        <v>4.4321935168</v>
       </c>
       <c r="S7">
-        <v>0.006774372516645444</v>
+        <v>0.006059918459149065</v>
       </c>
       <c r="T7">
-        <v>0.006774372516645443</v>
+        <v>0.006059918459149063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H8">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I8">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J8">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>12.963894</v>
+        <v>11.550723</v>
       </c>
       <c r="N8">
-        <v>38.891682</v>
+        <v>34.652169</v>
       </c>
       <c r="O8">
-        <v>0.9730587716591288</v>
+        <v>0.9771722872222799</v>
       </c>
       <c r="P8">
-        <v>0.9730587716591287</v>
+        <v>0.9771722872222797</v>
       </c>
       <c r="Q8">
-        <v>19.35051316612</v>
+        <v>5.355107694850001</v>
       </c>
       <c r="R8">
-        <v>174.15461849508</v>
+        <v>48.19596925365001</v>
       </c>
       <c r="S8">
-        <v>0.1528219528872541</v>
+        <v>0.06589595933248905</v>
       </c>
       <c r="T8">
-        <v>0.152821952887254</v>
+        <v>0.06589595933248904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H9">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I9">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J9">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.449184</v>
       </c>
       <c r="O9">
-        <v>0.01123845534088585</v>
+        <v>0.012666744083571</v>
       </c>
       <c r="P9">
-        <v>0.01123845534088585</v>
+        <v>0.012666744083571</v>
       </c>
       <c r="Q9">
-        <v>0.2234910001066667</v>
+        <v>0.06941639626666668</v>
       </c>
       <c r="R9">
-        <v>2.01141900096</v>
+        <v>0.6247475664000001</v>
       </c>
       <c r="S9">
-        <v>0.001765034900925816</v>
+        <v>0.0008541863742152696</v>
       </c>
       <c r="T9">
-        <v>0.001765034900925815</v>
+        <v>0.0008541863742152694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.492646666666667</v>
+        <v>0.4636166666666667</v>
       </c>
       <c r="H10">
-        <v>4.47794</v>
+        <v>1.39085</v>
       </c>
       <c r="I10">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="J10">
-        <v>0.1570531578752254</v>
+        <v>0.06743535422991333</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2092053333333333</v>
+        <v>0.1201083333333333</v>
       </c>
       <c r="N10">
-        <v>0.627616</v>
+        <v>0.360325</v>
       </c>
       <c r="O10">
-        <v>0.01570277299998534</v>
+        <v>0.01016096869414922</v>
       </c>
       <c r="P10">
-        <v>0.01570277299998534</v>
+        <v>0.01016096869414921</v>
       </c>
       <c r="Q10">
-        <v>0.3122696434488889</v>
+        <v>0.0556842251388889</v>
       </c>
       <c r="R10">
-        <v>2.81042679104</v>
+        <v>0.5011580262500001</v>
       </c>
       <c r="S10">
-        <v>0.002466170087045525</v>
+        <v>0.0006852085232090124</v>
       </c>
       <c r="T10">
-        <v>0.002466170087045524</v>
+        <v>0.0006852085232090121</v>
       </c>
     </row>
   </sheetData>
